--- a/Login_User_Credentials.xlsx
+++ b/Login_User_Credentials.xlsx
@@ -122,13 +122,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -326,10 +330,14 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.11"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -340,18 +348,18 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="2" t="n">
         <v>123</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="2" t="n">
         <v>123</v>
       </c>
     </row>
